--- a/biology/Histoire de la zoologie et de la botanique/Ren_Chang_Ching/Ren_Chang_Ching.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ren_Chang_Ching/Ren_Chang_Ching.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ren Chang Ching (ou Qin Renchang ou 秦仁昌), né le 15 février 1898 à Wujin, Jiangsu et décédé le 22 juillet 1986 à Pékin, est un botaniste chinois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il effectue ses études à l'université de Nankin, y étudie l'agriculture et se spécialise en botanique. Il constate l'absence de collections botaniques en Chine, toutes les plantes collectées étant envoyées en Europe ou en Amérique. Afin d'acquérir les connaissances presque exclusivement étrangères, il étudie les langues : il maîtrise l'anglais, le latin, le français et lit l'allemand et le russe. Il noue des contacts avec les grandes institutions d'occident et y assure des échanges. À l'occasion du 5e congrès de botanique, il parcourt les capitales européennes de 1930 à 1932 (en particulier, il s'intéresse aux collections de Kew). À son retour en Chine, il s'attache à la constitution d'herbiers et de jardins botaniques. Il fonde l'institut de biologie végétale de Lijiang. Contraint par l'invasion japonaise de fuir à Kunming dans le Yunnan, il y reste après la libération et devient président du département de biologie de l'université du Yunnan. Il occupe aussi après 1949 diverses fonctions de directeurs de services forestiers. Il poursuit par ailleurs jusqu'à sa mort l'étude des fougères.
 Il a assuré des collectes importantes dans de nombreuses régions chinoises : de 1923 à 1928 dans le Nanjing, le Jiangsu, le Zhejiang, au sud de l'Anhui, au sud et à l'ouest du Hubei, dans le Qinghai, dans le Gansu, en Mongolie intérieure, dans le Guangxi et le Guangdong, à partir de 1938 dans le Yunnan et après 1952 dans le sud de la Chine, jusqu'à la frontière birmane.
@@ -545,7 +559,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>avec Hu Xiansu - Icones filicum sinicarum - Nankin, Academia sinica, 1930-1937 - 4 volumes
 Classification naturelle des Polypodiaceae, 1940
@@ -578,7 +594,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Un genre lui a été dédié : Chingia Holttum (1971) de la famille des Thélyptéridacées ainsi que les plantes suivantes :
 Acer chingii Hu (1930) - Érable (Acéracée) du Guangxi (Chine)
